--- a/GroundTruth.xlsx
+++ b/GroundTruth.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/93be100d28a9ae36/ドキュメント/GitHub/keisankikogaku/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/93be100d28a9ae36/ドキュメント/GitHub/doutaikenti-kadai/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{AA6CFC21-2880-4C1F-8A57-F8DF9E226921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BC72ED4-EFFD-49B4-A3C2-2B3788A66EAC}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{AA6CFC21-2880-4C1F-8A57-F8DF9E226921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC9CB981-86B5-4DDA-9D65-63842DA1EA90}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -699,10 +699,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -1002,8 +998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1035"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1026" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F1035" sqref="F1035"/>
+    <sheetView tabSelected="1" topLeftCell="A1015" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J1024" sqref="J1024"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -16473,11 +16469,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1032" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="D1032">
-        <v>0</v>
-      </c>
-    </row>
     <row r="1033" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F1033">
         <f>SUM(F2:F1031)</f>
